--- a/questionnaire/education_oecd.xlsx
+++ b/questionnaire/education_oecd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabre\Google_Drive\Données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabre\Documents\www\global_tax_attitudes\questionnaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5916,7 +5916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="614" uniqueCount="138">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="615" uniqueCount="139">
   <si>
     <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="EAG_NEAC" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Educational attainment and labour-force status&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Niveau de formation et situation au regard de l'emploi&lt;/Name&gt;&lt;Dimension Code="COUNTRY" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CAN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Canada&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Canada&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="COL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Colombia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Colombie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CRI" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Costa Rica&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Costa Rica&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GRC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Greece&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Grèce&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Iceland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Islande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IRL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Ireland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Irlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Israel&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Israël&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LUX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Luxembourg&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Luxembourg&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NZL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;New Zealand&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nouvelle-Zélande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="POL" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Poland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pologne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovenia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Slovénie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SWE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Sweden&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suède&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TUR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Türkiye&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Türkiye&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OAVG" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;OECD - Average&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Moyenne OCDE&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="E22" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;European Union 22 members in OECD&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;22 membres de l'Union européenne et de l'OCDE&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="G20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;G20&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;G20&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NMEC" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Non-OECD Economies&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Économies non-OCDE&lt;/Name&gt;&lt;ChildMember Code="ARG" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Argentina&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Argentine&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="BRA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Brazil&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Brésil&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="CHN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;China (People's Republic of)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chine (République populaire de)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="IND" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;India&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Inde&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="IDN" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Indonesia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indonésie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="SAU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Saudi Arabia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Arabie saoudite&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ZAF" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;South Africa&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Afrique du Sud&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="ISC11A" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;ISCED 2011 A education level&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;CITE 2011 A niveau atteint&lt;/Name&gt;&lt;Member Code="L0T2" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Below upper secondary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Inférieur au deuxième cycle du secondaire&lt;/Name&gt;&lt;ChildMember Code="L0" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Less than primary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Inférieur au primaire &lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L1_T_SC3T4" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Primary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Primaire &lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L2_T_SC2" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Completion of intermediate lower secondary programmes&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Réussite d'une formation intermédiaire du premier cycle du secondaire &lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L2_T_SC3T4" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lower secondary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Premier cycle du secondaire&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L3_T_SC2" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Completion of intermediate upper secondary programmes&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Réussite d'une formation intermédiaire du deuxième cycle du secondaire&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="L3T4" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Upper secondary or post-secondary non-tertiary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Deuxième cycle du secondaire ou post-secondaire non tertiaire &lt;/Name&gt;&lt;ChildMember Code="L3" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Upper secondary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Deuxième cycle du secondaire &lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L4" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Post-secondary non-tertiary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Post-secondaire non tertiaire&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="L5T8" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="1"&gt;&lt;Name LocaleIsoCode="en"&gt;Tertiary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Tertiaire&lt;/Name&gt;&lt;ChildMember Code="L5" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Short-cycle tertiary education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Tertiaire de cycle court&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L6" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Bachelor’s or equivalent education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Niveau licence ou équivalent&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L7" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Master’s or equivalent education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Niveau master ou équivalent &lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="L8" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Doctoral or equivalent education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Niveau doctorat ou équivalent &lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="SEX" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Gender&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Sexe&lt;/Name&gt;&lt;Member Code="T" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="F" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Women&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Femmes&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="M" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Men&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hommes&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="AGE" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Age&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Age&lt;/Name&gt;&lt;Member Code="Y25T64" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;25-64 years&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;25-64 ans&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="FIELD" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Field&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Domaine&lt;/Name&gt;&lt;Member Code="T" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Total&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="MEASURE" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Measure&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mésure&lt;/Name&gt;&lt;Member Code="VALUE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SE" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;SE&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Er.-T.&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="INDICATOR" HasMetadata="false" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;INDICATOR&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur&lt;/Name&gt;&lt;Member Code="NEAC_SHARE_EA" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Share of population by educational attainment&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pourcentage de la population selon le niveau de formation&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="YEAR" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Reference year&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Année de référence&lt;/Name&gt;&lt;Member Code="9999" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latest available year&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Dernière année disponible&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="ISC11A" /&gt;&lt;Dimension Code="MEASURE" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="COUNTRY" CommonCode="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="INDICATOR" /&gt;&lt;Dimension Code="YEAR" CommonCode="TIME" /&gt;&lt;Dimension Code="AGE" /&gt;&lt;Dimension Code="SEX" /&gt;&lt;Dimension Code="FIELD" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;false&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=93189&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
   </si>
@@ -6330,6 +6330,9 @@
   </si>
   <si>
     <t>Formación profesional básica (FP) ? / Formación profesional de grado medio / Bachillerato</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?datasetcode=EAG_NEAC</t>
   </si>
 </sst>
 </file>
@@ -7203,9 +7206,6 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -7252,6 +7252,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21941,8 +21944,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21982,258 +21985,261 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="48"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="47"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="48"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="47"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="47"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="48"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="47"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="55" t="s">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
       <c r="P8" s="36"/>
-      <c r="Q8" s="55" t="s">
+      <c r="Q8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="56"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
       <c r="V8" s="36"/>
       <c r="W8" s="26"/>
-      <c r="X8" s="55" t="s">
+      <c r="X8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="56"/>
+      <c r="Y8" s="55"/>
       <c r="Z8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="58"/>
       <c r="AG8" s="36"/>
     </row>
     <row r="9" spans="1:33" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="35" t="s">
         <v>15</v>
       </c>
@@ -22254,8 +22260,8 @@
         <v>19</v>
       </c>
       <c r="P9" s="36"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="35" t="s">
         <v>20</v>
       </c>
@@ -22265,8 +22271,8 @@
       </c>
       <c r="V9" s="36"/>
       <c r="W9" s="27"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="58"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
       <c r="Z9" s="35" t="s">
         <v>22</v>
       </c>
@@ -22968,13 +22974,13 @@
       <c r="P18" s="7">
         <v>0.15346973999999999</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="19">
         <v>31.559422999999999</v>
       </c>
       <c r="R18" s="7">
         <v>0.22278164</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="9">
         <v>19.964981000000002</v>
       </c>
       <c r="T18" s="7">

--- a/questionnaire/education_oecd.xlsx
+++ b/questionnaire/education_oecd.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -47,14 +47,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
@@ -81,14 +81,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
@@ -115,14 +115,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>581025</xdr:rowOff>
               </to>
@@ -149,14 +149,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>581025</xdr:rowOff>
               </to>
@@ -183,14 +183,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>581025</xdr:rowOff>
               </to>
@@ -217,14 +217,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>581025</xdr:rowOff>
               </to>
@@ -251,14 +251,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>790575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -285,14 +285,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>790575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -319,14 +319,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -353,14 +353,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -387,14 +387,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -421,14 +421,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -455,14 +455,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -489,14 +489,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -523,14 +523,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -557,14 +557,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -591,14 +591,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -625,14 +625,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -659,14 +659,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -693,14 +693,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -727,14 +727,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -761,14 +761,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -795,14 +795,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -829,14 +829,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -863,14 +863,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -897,14 +897,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -931,14 +931,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -965,14 +965,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -999,14 +999,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </to>
@@ -1033,14 +1033,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1067,14 +1067,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1101,14 +1101,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1135,14 +1135,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1169,14 +1169,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1203,14 +1203,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1237,14 +1237,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1271,14 +1271,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1305,14 +1305,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1339,14 +1339,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1373,14 +1373,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1407,14 +1407,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1441,14 +1441,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1475,14 +1475,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1509,14 +1509,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1543,14 +1543,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1577,14 +1577,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1611,14 +1611,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1645,14 +1645,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1679,14 +1679,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1713,14 +1713,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1747,14 +1747,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1781,14 +1781,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1815,14 +1815,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1849,14 +1849,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>23</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1883,14 +1883,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1917,14 +1917,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1951,14 +1951,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -1985,14 +1985,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>24</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2019,14 +2019,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>30</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2053,14 +2053,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2087,14 +2087,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>26</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2121,14 +2121,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2155,14 +2155,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2189,14 +2189,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2223,14 +2223,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>27</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2257,14 +2257,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>33</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2291,14 +2291,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>33</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2325,14 +2325,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2359,14 +2359,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2393,14 +2393,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>29</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2427,14 +2427,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>30</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>35</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2461,14 +2461,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>30</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>35</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2495,14 +2495,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2529,14 +2529,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2563,14 +2563,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2597,14 +2597,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2631,14 +2631,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2665,14 +2665,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2699,14 +2699,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>26</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2733,14 +2733,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2767,14 +2767,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2801,14 +2801,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>36</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2835,14 +2835,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2869,14 +2869,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2903,14 +2903,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2937,14 +2937,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -2971,14 +2971,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3005,14 +3005,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3039,14 +3039,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3073,14 +3073,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3107,14 +3107,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3141,14 +3141,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3175,14 +3175,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3209,14 +3209,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>33</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>38</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3243,14 +3243,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>39</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3277,14 +3277,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>35</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3311,14 +3311,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>35</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3345,14 +3345,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>36</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3379,14 +3379,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>42</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3413,14 +3413,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>37</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>42</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3447,14 +3447,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>38</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3481,14 +3481,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>38</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3515,14 +3515,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>38</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3549,14 +3549,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>38</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3583,14 +3583,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>38</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3617,14 +3617,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>39</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>44</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3651,14 +3651,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3685,14 +3685,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3719,14 +3719,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>46</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3753,14 +3753,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>46</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3787,14 +3787,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3821,14 +3821,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3855,14 +3855,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>43</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3889,14 +3889,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>44</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3923,14 +3923,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>44</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3957,14 +3957,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>44</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -3991,14 +3991,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4025,14 +4025,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4059,14 +4059,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>30</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
+                <xdr:col>29</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>428625</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4093,14 +4093,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4127,14 +4127,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4161,14 +4161,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4195,14 +4195,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4229,14 +4229,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4263,14 +4263,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>46</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4297,14 +4297,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>46</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4331,14 +4331,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>46</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4365,14 +4365,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>47</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4399,14 +4399,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>47</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4433,14 +4433,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>47</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4467,14 +4467,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>47</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>29</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4501,14 +4501,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4535,14 +4535,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4569,14 +4569,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4603,14 +4603,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>48</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>29</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4637,14 +4637,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4671,14 +4671,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4705,14 +4705,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4739,14 +4739,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4773,14 +4773,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4807,14 +4807,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>29</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4841,14 +4841,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4875,14 +4875,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>34</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>33</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>36</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4909,14 +4909,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>39</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>38</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>41</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>40</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4943,14 +4943,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>43</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>42</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>45</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>44</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -4977,14 +4977,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>45</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>44</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>47</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>46</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5011,14 +5011,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5045,14 +5045,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5079,14 +5079,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5113,14 +5113,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5147,14 +5147,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5181,14 +5181,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>50</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5215,14 +5215,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>56</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5249,14 +5249,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>56</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5283,14 +5283,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>56</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5317,14 +5317,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>56</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5351,14 +5351,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>51</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>56</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5385,14 +5385,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5419,14 +5419,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5453,14 +5453,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5487,14 +5487,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </to>
@@ -5521,14 +5521,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
@@ -5555,14 +5555,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
@@ -5589,14 +5589,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>38</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>37</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
@@ -5623,14 +5623,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>40</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>39</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
@@ -5657,14 +5657,14 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>53</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
                 <xdr:row>57</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
@@ -5691,16 +5691,16 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -5725,16 +5725,16 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -5759,16 +5759,16 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>54</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -5793,16 +5793,16 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>552450</xdr:rowOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -5827,16 +5827,16 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>552450</xdr:rowOff>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -5861,16 +5861,16 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>42</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>41</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>552450</xdr:rowOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -5895,16 +5895,16 @@
           <commentPr locked="0" defaultSize="0" autoFill="0" autoLine="0" lockText="0">
             <anchor>
               <from>
-                <xdr:col>44</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>43</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>46</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>552450</xdr:rowOff>
+                <xdr:col>45</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </commentPr>
@@ -6342,7 +6342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6559,6 +6559,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="38">
@@ -7039,7 +7045,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -7082,8 +7088,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7164,48 +7171,6 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -7254,11 +7219,54 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -7288,6 +7296,7 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -7322,14 +7331,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
@@ -7405,14 +7414,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
@@ -7488,14 +7497,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>581025</xdr:rowOff>
         </xdr:to>
@@ -7571,14 +7580,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>581025</xdr:rowOff>
         </xdr:to>
@@ -7654,14 +7663,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>581025</xdr:rowOff>
         </xdr:to>
@@ -7737,14 +7746,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>581025</xdr:rowOff>
         </xdr:to>
@@ -7820,14 +7829,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>790575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -7903,14 +7912,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>790575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -7986,14 +7995,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -8069,14 +8078,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -8152,14 +8161,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -8235,14 +8244,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -8318,14 +8327,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -8401,14 +8410,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -8484,14 +8493,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -8567,14 +8576,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8650,14 +8659,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8733,14 +8742,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8816,14 +8825,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8899,14 +8908,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8982,14 +8991,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9065,14 +9074,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9148,14 +9157,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9231,14 +9240,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -9314,14 +9323,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -9397,14 +9406,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -9480,14 +9489,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -9563,14 +9572,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -9646,14 +9655,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -9729,14 +9738,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -9812,14 +9821,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -9895,14 +9904,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -9978,14 +9987,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10061,14 +10070,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10144,14 +10153,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10227,14 +10236,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10310,14 +10319,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10393,14 +10402,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10476,14 +10485,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10559,14 +10568,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10642,14 +10651,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10725,14 +10734,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10808,14 +10817,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10891,14 +10900,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -10974,14 +10983,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11057,14 +11066,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11140,14 +11149,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11223,14 +11232,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11306,14 +11315,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11389,14 +11398,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11472,14 +11481,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11555,14 +11564,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11638,14 +11647,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11721,14 +11730,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11804,14 +11813,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11887,14 +11896,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -11970,14 +11979,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12053,14 +12062,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12136,14 +12145,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12219,14 +12228,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12302,14 +12311,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12385,14 +12394,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12468,14 +12477,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12551,14 +12560,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12634,14 +12643,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12717,14 +12726,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12800,14 +12809,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12883,14 +12892,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -12966,14 +12975,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13049,14 +13058,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13132,14 +13141,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13215,14 +13224,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13298,14 +13307,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13381,14 +13390,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13464,14 +13473,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13547,14 +13556,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13630,14 +13639,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13713,14 +13722,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13796,14 +13805,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:col>26</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>28</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13879,14 +13888,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -13962,14 +13971,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14045,14 +14054,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>36</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14128,14 +14137,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14211,14 +14220,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14294,14 +14303,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14377,14 +14386,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14460,14 +14469,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14543,14 +14552,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14626,14 +14635,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14709,14 +14718,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14792,14 +14801,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14875,14 +14884,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -14958,14 +14967,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15041,14 +15050,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15124,14 +15133,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15207,14 +15216,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15290,14 +15299,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15373,14 +15382,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15456,14 +15465,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15539,14 +15548,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15622,14 +15631,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15705,14 +15714,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15788,14 +15797,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15871,14 +15880,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -15954,14 +15963,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16037,14 +16046,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16120,14 +16129,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16203,14 +16212,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16286,14 +16295,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16369,14 +16378,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16452,14 +16461,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16535,14 +16544,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16618,14 +16627,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16701,14 +16710,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16784,14 +16793,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16867,14 +16876,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -16950,14 +16959,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17033,14 +17042,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17116,14 +17125,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>30</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17199,14 +17208,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17282,14 +17291,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17365,14 +17374,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17448,14 +17457,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17531,14 +17540,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17614,14 +17623,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17697,14 +17706,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17780,14 +17789,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17863,14 +17872,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -17946,14 +17955,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18029,14 +18038,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18112,14 +18121,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>29</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18195,14 +18204,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18278,14 +18287,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18361,14 +18370,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18444,14 +18453,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>29</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18527,14 +18536,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18610,14 +18619,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18693,14 +18702,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18776,14 +18785,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>20</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18859,14 +18868,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -18942,14 +18951,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>29</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19025,14 +19034,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19108,14 +19117,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>34</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>33</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>36</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>35</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19191,14 +19200,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>39</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>38</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>41</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>40</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19274,14 +19283,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>43</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>42</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>45</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>44</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19357,14 +19366,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>45</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>44</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>47</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>46</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19440,14 +19449,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19523,14 +19532,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19606,14 +19615,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19689,14 +19698,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19772,14 +19781,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19855,14 +19864,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -19938,14 +19947,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20021,14 +20030,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20104,14 +20113,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20187,14 +20196,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20270,14 +20279,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20353,14 +20362,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20436,14 +20445,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20519,14 +20528,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20602,14 +20611,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
@@ -20685,14 +20694,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -20768,14 +20777,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -20851,14 +20860,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>38</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>37</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -20934,14 +20943,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>39</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -21017,14 +21026,14 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -21100,16 +21109,16 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
@@ -21183,16 +21192,16 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>25</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>27</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>714375</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
@@ -21266,16 +21275,16 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
@@ -21349,16 +21358,16 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
@@ -21432,16 +21441,16 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>32</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
+          <xdr:col>34</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
@@ -21515,16 +21524,16 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>42</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
@@ -21598,16 +21607,16 @@
     <mc:Fallback>
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
-          <xdr:col>44</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
+          <xdr:col>43</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>46</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
+          <xdr:col>45</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="0">
           <xdr:nvSpPr>
@@ -21944,14 +21953,14 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
@@ -21985,318 +21994,318 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="47"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="33"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="47"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="47"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="33"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="47"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="33"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="47"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="33"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="54" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="35" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="54" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="55"/>
-      <c r="S8" s="35" t="s">
+      <c r="R8" s="41"/>
+      <c r="S8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="36"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="46"/>
       <c r="W8" s="26"/>
-      <c r="X8" s="54" t="s">
+      <c r="X8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="35" t="s">
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="58"/>
-      <c r="AF8" s="58"/>
-      <c r="AG8" s="36"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="46"/>
     </row>
     <row r="9" spans="1:33" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="35" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="35" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="35" t="s">
+      <c r="L9" s="46"/>
+      <c r="M9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="35" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="35" t="s">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="36"/>
-      <c r="U9" s="35" t="s">
+      <c r="T9" s="46"/>
+      <c r="U9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="36"/>
+      <c r="V9" s="46"/>
       <c r="W9" s="27"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="35" t="s">
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="35" t="s">
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="35" t="s">
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="35" t="s">
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AG9" s="36"/>
+      <c r="AG9" s="46"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
@@ -22384,10 +22393,10 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
@@ -22483,10 +22492,10 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
@@ -22630,10 +22639,10 @@
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
@@ -22779,10 +22788,10 @@
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6" t="s">
         <v>33</v>
       </c>
@@ -22928,10 +22937,10 @@
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
@@ -23079,10 +23088,10 @@
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
@@ -23228,10 +23237,10 @@
       <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
@@ -23328,10 +23337,10 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="6" t="s">
         <v>33</v>
       </c>
@@ -23428,10 +23437,10 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
@@ -23528,10 +23537,10 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="6" t="s">
         <v>33</v>
       </c>
@@ -23628,10 +23637,10 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="6" t="s">
         <v>39</v>
       </c>
@@ -23725,10 +23734,10 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="6" t="s">
         <v>33</v>
       </c>
@@ -23822,10 +23831,10 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
@@ -23922,10 +23931,10 @@
       </c>
     </row>
     <row r="29" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="6" t="s">
         <v>33</v>
       </c>
@@ -24019,10 +24028,10 @@
       </c>
     </row>
     <row r="30" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
@@ -24119,10 +24128,10 @@
       </c>
     </row>
     <row r="31" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
@@ -24219,10 +24228,10 @@
       </c>
     </row>
     <row r="32" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="6" t="s">
         <v>33</v>
       </c>
@@ -24319,10 +24328,10 @@
       </c>
     </row>
     <row r="33" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="6" t="s">
         <v>33</v>
       </c>
@@ -24419,10 +24428,10 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="6" t="s">
         <v>33</v>
       </c>
@@ -24519,10 +24528,10 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="6" t="s">
         <v>33</v>
       </c>
@@ -24619,10 +24628,10 @@
       </c>
     </row>
     <row r="36" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="6" t="s">
         <v>33</v>
       </c>
@@ -24719,10 +24728,10 @@
       </c>
     </row>
     <row r="37" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="34"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="6" t="s">
         <v>33</v>
       </c>
@@ -24819,10 +24828,10 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="6" t="s">
         <v>33</v>
       </c>
@@ -24919,10 +24928,10 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="6" t="s">
         <v>33</v>
       </c>
@@ -25019,10 +25028,10 @@
       </c>
     </row>
     <row r="40" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="6" t="s">
         <v>33</v>
       </c>
@@ -25119,10 +25128,10 @@
       </c>
     </row>
     <row r="41" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="6" t="s">
         <v>33</v>
       </c>
@@ -25219,10 +25228,10 @@
       </c>
     </row>
     <row r="42" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="6" t="s">
         <v>33</v>
       </c>
@@ -25319,10 +25328,10 @@
       </c>
     </row>
     <row r="43" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="6" t="s">
         <v>33</v>
       </c>
@@ -25419,10 +25428,10 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="29"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="6" t="s">
         <v>33</v>
       </c>
@@ -25519,10 +25528,10 @@
       </c>
     </row>
     <row r="45" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="29"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="6" t="s">
         <v>33</v>
       </c>
@@ -25619,10 +25628,10 @@
       </c>
     </row>
     <row r="46" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="29"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="6" t="s">
         <v>33</v>
       </c>
@@ -25719,10 +25728,10 @@
       </c>
     </row>
     <row r="47" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="29"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="6" t="s">
         <v>33</v>
       </c>
@@ -25819,10 +25828,10 @@
       </c>
     </row>
     <row r="48" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="29"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="6" t="s">
         <v>33</v>
       </c>
@@ -25919,10 +25928,10 @@
       </c>
     </row>
     <row r="49" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="29"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="6" t="s">
         <v>33</v>
       </c>
@@ -26019,10 +26028,10 @@
       </c>
     </row>
     <row r="50" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="29"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="6" t="s">
         <v>33</v>
       </c>
@@ -26119,10 +26128,10 @@
       </c>
     </row>
     <row r="51" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="29"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="6" t="s">
         <v>33</v>
       </c>
@@ -26219,10 +26228,10 @@
       </c>
     </row>
     <row r="52" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="29"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="6" t="s">
         <v>33</v>
       </c>
@@ -26319,10 +26328,10 @@
       </c>
     </row>
     <row r="53" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="29"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="6" t="s">
         <v>33</v>
       </c>
@@ -26419,10 +26428,10 @@
       </c>
     </row>
     <row r="54" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="29"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="6" t="s">
         <v>33</v>
       </c>
@@ -26519,10 +26528,10 @@
       </c>
     </row>
     <row r="55" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="29"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="6" t="s">
         <v>31</v>
       </c>
@@ -26619,10 +26628,10 @@
       </c>
     </row>
     <row r="56" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="29"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="6" t="s">
         <v>31</v>
       </c>
@@ -26719,10 +26728,10 @@
       </c>
     </row>
     <row r="57" spans="1:33" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="29"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="6" t="s">
         <v>31</v>
       </c>
@@ -26818,8 +26827,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+    <row r="58" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -26920,8 +26929,8 @@
         <v>3.7736899999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+    <row r="59" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
       <c r="B59" s="6" t="s">
         <v>78</v>
       </c>
@@ -27020,8 +27029,8 @@
         <v>1.212361E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="273" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+    <row r="60" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="57"/>
       <c r="B60" s="6" t="s">
         <v>79</v>
       </c>
@@ -27120,8 +27129,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="63" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+    <row r="61" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
       <c r="B61" s="6" t="s">
         <v>80</v>
       </c>
@@ -27220,8 +27229,8 @@
         <v>4.1003909999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+    <row r="62" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="57"/>
       <c r="B62" s="6" t="s">
         <v>81</v>
       </c>
@@ -27320,8 +27329,8 @@
         <v>2.0971499999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="126" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
+    <row r="63" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
       <c r="B63" s="6" t="s">
         <v>82</v>
       </c>
@@ -27472,12 +27481,56 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:AG3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:AG4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:AG5"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:AG6"/>
     <mergeCell ref="A7:D7"/>
@@ -27494,56 +27547,12 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:AG3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:AG4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:AG5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=EAG_NEAC&amp;ShowOnWeb=true&amp;Lang=en"/>
@@ -27624,13 +27633,14 @@
     <hyperlink ref="I63" r:id="rId76" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=EAG_NEAC&amp;Coords=[INDICATOR].[NEAC_SHARE_EA],[YEAR].[9999],[AGE].[Y25T64],[SEX].[T],[FIELD].[T],[ISC11A].[L1_T_SC3T4],[MEASURE].[VALUE],[COUNTRY].[ZAF]&amp;ShowOnWeb=true&amp;Lang=en"/>
     <hyperlink ref="AD63" r:id="rId77" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=EAG_NEAC&amp;Coords=[INDICATOR].[NEAC_SHARE_EA],[YEAR].[9999],[AGE].[Y25T64],[SEX].[T],[FIELD].[T],[ISC11A].[L7],[MEASURE].[VALUE],[COUNTRY].[ZAF]&amp;ShowOnWeb=true&amp;Lang=en"/>
     <hyperlink ref="A64" r:id="rId78" display="https://stats-2.oecd.org/index.aspx?DatasetCode=EAG_NEAC"/>
+    <hyperlink ref="C2" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
-  <drawing r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
+  <drawing r:id="rId81"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="v">
-      <legacyDrawing r:id="rId81"/>
+      <legacyDrawing r:id="rId82"/>
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
